--- a/outputs-HGR-r202/train-g__Parasutterella_split_pruned.xlsx
+++ b/outputs-HGR-r202/train-g__Parasutterella_split_pruned.xlsx
@@ -10,6 +10,7 @@
     <sheet name="quadratic-svm-score4" sheetId="3" r:id="rId5"/>
     <sheet name="quadratic-svm-score3" sheetId="4" r:id="rId6"/>
     <sheet name="quadratic-svm-score2" sheetId="5" r:id="rId7"/>
+    <sheet name="quadratic-svm-score1" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
@@ -17,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="379">
   <si>
     <t>Row</t>
   </si>
@@ -932,6 +933,228 @@
   </si>
   <si>
     <t>label_UMGS1718_93.fasta</t>
+  </si>
+  <si>
+    <t>label_GCF_000144975_7.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS12_1.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS12_15.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS12_16.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS12_20.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS12_25.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS12_27.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS12_29.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS12_33.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS12_35.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS12_40.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS12_45.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS12_46.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS12_48.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS12_49.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS12_53.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS12_54.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS12_7.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS12_8.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS2063_14.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS2063_16.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS2063_19.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS2063_21.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS2063_22.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS2063_31.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS2063_37.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS2063_44.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS2063_6.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS2063_61.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS2063_64.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS2063_9.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1479_1.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1479_18.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1479_21.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1479_23.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1479_25.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1479_27.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1479_30.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1479_31.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1479_36.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1479_4.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1479_40.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1479_46.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1479_51.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1479_66.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1479_69.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1479_73.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1479_83.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1479_84.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1718_0.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1718_102.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1718_105.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1718_112.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1718_113.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1718_13.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1718_16.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1718_27.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1718_3.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1718_30.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1718_31.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1718_38.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1718_48.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1718_50.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1718_58.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1718_62.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1718_63.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1718_7.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1718_72.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1718_73.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1718_76.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1718_86.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1718_9.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1718_95.fasta</t>
+  </si>
+  <si>
+    <t>label_UMGS1718_97.fasta</t>
   </si>
 </sst>
 </file>
@@ -952,7 +1175,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -968,11 +1191,13 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -982,6 +1207,8 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8889,4 +9116,1973 @@
     </row>
   </sheetData>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H75"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="26.85546875" customWidth="true"/>
+    <col min="2" max="2" width="34.140625" customWidth="true"/>
+    <col min="3" max="3" width="27.85546875" customWidth="true"/>
+    <col min="4" max="4" width="27.85546875" customWidth="true"/>
+    <col min="5" max="5" width="27.85546875" customWidth="true"/>
+    <col min="6" max="6" width="27.85546875" customWidth="true"/>
+    <col min="7" max="7" width="10.28515625" customWidth="true"/>
+    <col min="8" max="8" width="6.42578125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="B2">
+        <v>0.58889609135635701</v>
+      </c>
+      <c r="C2">
+        <v>0.24048224236989116</v>
+      </c>
+      <c r="D2">
+        <v>0.0028101271932262843</v>
+      </c>
+      <c r="E2">
+        <v>4.048211181156248e-05</v>
+      </c>
+      <c r="F2">
+        <v>0.16777105696871406</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="B3">
+        <v>0.58019263819785294</v>
+      </c>
+      <c r="C3">
+        <v>0.30708960098960436</v>
+      </c>
+      <c r="D3">
+        <v>0.059329406800729685</v>
+      </c>
+      <c r="E3">
+        <v>0.0046675625361560233</v>
+      </c>
+      <c r="F3">
+        <v>0.048720791475657117</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="B4">
+        <v>0.33154086872784777</v>
+      </c>
+      <c r="C4">
+        <v>0.43863534966419132</v>
+      </c>
+      <c r="D4">
+        <v>0.0086018286454306227</v>
+      </c>
+      <c r="E4">
+        <v>0.00045681199656153089</v>
+      </c>
+      <c r="F4">
+        <v>0.22076514096596891</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="9" t="s">
+        <v>308</v>
+      </c>
+      <c r="B5">
+        <v>0.25549602598828497</v>
+      </c>
+      <c r="C5">
+        <v>0.57404394251389657</v>
+      </c>
+      <c r="D5">
+        <v>0.0028928251301357094</v>
+      </c>
+      <c r="E5">
+        <v>0.006861486766539489</v>
+      </c>
+      <c r="F5">
+        <v>0.16070571960114324</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="B6">
+        <v>0.15212187634259994</v>
+      </c>
+      <c r="C6">
+        <v>0.51306186146008093</v>
+      </c>
+      <c r="D6">
+        <v>0.031615096528582957</v>
+      </c>
+      <c r="E6">
+        <v>0.20387037551128057</v>
+      </c>
+      <c r="F6">
+        <v>0.099330790157455731</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="B7">
+        <v>0.079486281800586617</v>
+      </c>
+      <c r="C7">
+        <v>0.67838348928729053</v>
+      </c>
+      <c r="D7">
+        <v>0.0062611530039573</v>
+      </c>
+      <c r="E7">
+        <v>0.0034252020956897088</v>
+      </c>
+      <c r="F7">
+        <v>0.23244387381247592</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="B8">
+        <v>0.01182007020894699</v>
+      </c>
+      <c r="C8">
+        <v>0.35403587572490075</v>
+      </c>
+      <c r="D8">
+        <v>0.0061027889445793146</v>
+      </c>
+      <c r="E8">
+        <v>0.59621770944584163</v>
+      </c>
+      <c r="F8">
+        <v>0.031823555675731245</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="B9">
+        <v>0.10115232951474691</v>
+      </c>
+      <c r="C9">
+        <v>0.16088945660594856</v>
+      </c>
+      <c r="D9">
+        <v>0.0085301800074655109</v>
+      </c>
+      <c r="E9">
+        <v>8.7597664919620714e-05</v>
+      </c>
+      <c r="F9">
+        <v>0.72934043620691935</v>
+      </c>
+      <c r="G9">
+        <v>5</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="9" t="s">
+        <v>313</v>
+      </c>
+      <c r="B10">
+        <v>0.069750298444921088</v>
+      </c>
+      <c r="C10">
+        <v>0.63317481731491398</v>
+      </c>
+      <c r="D10">
+        <v>0.042054069814906898</v>
+      </c>
+      <c r="E10">
+        <v>0.046324786195596462</v>
+      </c>
+      <c r="F10">
+        <v>0.20869602822966166</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="B11">
+        <v>0.023974419194991246</v>
+      </c>
+      <c r="C11">
+        <v>0.56827578080735597</v>
+      </c>
+      <c r="D11">
+        <v>0.0029206381377630745</v>
+      </c>
+      <c r="E11">
+        <v>0.090809750036492956</v>
+      </c>
+      <c r="F11">
+        <v>0.3140194118233966</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="9" t="s">
+        <v>315</v>
+      </c>
+      <c r="B12">
+        <v>0.0027841212176417996</v>
+      </c>
+      <c r="C12">
+        <v>0.26819612713817603</v>
+      </c>
+      <c r="D12">
+        <v>0.0032540313244372523</v>
+      </c>
+      <c r="E12">
+        <v>0.0046834120945140187</v>
+      </c>
+      <c r="F12">
+        <v>0.72108230822523101</v>
+      </c>
+      <c r="G12">
+        <v>5</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="9" t="s">
+        <v>316</v>
+      </c>
+      <c r="B13">
+        <v>0.0027072057005350825</v>
+      </c>
+      <c r="C13">
+        <v>0.20446924817554674</v>
+      </c>
+      <c r="D13">
+        <v>0.019444118341453376</v>
+      </c>
+      <c r="E13">
+        <v>0.044754723577414661</v>
+      </c>
+      <c r="F13">
+        <v>0.7286247042050501</v>
+      </c>
+      <c r="G13">
+        <v>5</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="9" t="s">
+        <v>317</v>
+      </c>
+      <c r="B14">
+        <v>0.0013993544699517715</v>
+      </c>
+      <c r="C14">
+        <v>0.21879552614690762</v>
+      </c>
+      <c r="D14">
+        <v>0.055774000162795809</v>
+      </c>
+      <c r="E14">
+        <v>0.33469753829694854</v>
+      </c>
+      <c r="F14">
+        <v>0.38933358092339621</v>
+      </c>
+      <c r="G14">
+        <v>5</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="9" t="s">
+        <v>318</v>
+      </c>
+      <c r="B15">
+        <v>0.0011450498732468784</v>
+      </c>
+      <c r="C15">
+        <v>0.094546489597372108</v>
+      </c>
+      <c r="D15">
+        <v>0.10657024047991079</v>
+      </c>
+      <c r="E15">
+        <v>0.24096920290409188</v>
+      </c>
+      <c r="F15">
+        <v>0.55676901714537841</v>
+      </c>
+      <c r="G15">
+        <v>5</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="B16">
+        <v>0.0017089326626755349</v>
+      </c>
+      <c r="C16">
+        <v>0.13617922804727695</v>
+      </c>
+      <c r="D16">
+        <v>0.064878193800107856</v>
+      </c>
+      <c r="E16">
+        <v>0.071761185085277943</v>
+      </c>
+      <c r="F16">
+        <v>0.72547246040466173</v>
+      </c>
+      <c r="G16">
+        <v>5</v>
+      </c>
+      <c r="H16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="B17">
+        <v>0.010286120777601345</v>
+      </c>
+      <c r="C17">
+        <v>0.14581454705099153</v>
+      </c>
+      <c r="D17">
+        <v>0.021644475010097225</v>
+      </c>
+      <c r="E17">
+        <v>0.12211711156557857</v>
+      </c>
+      <c r="F17">
+        <v>0.70013774559573139</v>
+      </c>
+      <c r="G17">
+        <v>5</v>
+      </c>
+      <c r="H17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="9" t="s">
+        <v>321</v>
+      </c>
+      <c r="B18">
+        <v>0.0018106538427005337</v>
+      </c>
+      <c r="C18">
+        <v>0.021287930488774458</v>
+      </c>
+      <c r="D18">
+        <v>0.025162168821378936</v>
+      </c>
+      <c r="E18">
+        <v>0.55834321894561745</v>
+      </c>
+      <c r="F18">
+        <v>0.39339602790152856</v>
+      </c>
+      <c r="G18">
+        <v>4</v>
+      </c>
+      <c r="H18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="B19">
+        <v>0.18898619990510421</v>
+      </c>
+      <c r="C19">
+        <v>0.70180179526291775</v>
+      </c>
+      <c r="D19">
+        <v>0.0065443811502866661</v>
+      </c>
+      <c r="E19">
+        <v>0.093878064109790466</v>
+      </c>
+      <c r="F19">
+        <v>0.0087895595719008884</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+      <c r="H19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="B20">
+        <v>0.24559757463103729</v>
+      </c>
+      <c r="C20">
+        <v>0.38911382281086954</v>
+      </c>
+      <c r="D20">
+        <v>0.0095527781059241666</v>
+      </c>
+      <c r="E20">
+        <v>0.34084293818181549</v>
+      </c>
+      <c r="F20">
+        <v>0.014892886270353409</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+      <c r="H20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="B21">
+        <v>0.0007295943052599385</v>
+      </c>
+      <c r="C21">
+        <v>0.0031508527732209504</v>
+      </c>
+      <c r="D21">
+        <v>0.80498657729757539</v>
+      </c>
+      <c r="E21">
+        <v>0.14583027095016907</v>
+      </c>
+      <c r="F21">
+        <v>0.045302704673774494</v>
+      </c>
+      <c r="G21">
+        <v>3</v>
+      </c>
+      <c r="H21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="B22">
+        <v>0.0019599367796325168</v>
+      </c>
+      <c r="C22">
+        <v>0.08126524621753263</v>
+      </c>
+      <c r="D22">
+        <v>0.36075462761897897</v>
+      </c>
+      <c r="E22">
+        <v>0.045740119786990108</v>
+      </c>
+      <c r="F22">
+        <v>0.51028006959686578</v>
+      </c>
+      <c r="G22">
+        <v>5</v>
+      </c>
+      <c r="H22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="9" t="s">
+        <v>326</v>
+      </c>
+      <c r="B23">
+        <v>0.001054983236070809</v>
+      </c>
+      <c r="C23">
+        <v>0.077523360409515046</v>
+      </c>
+      <c r="D23">
+        <v>0.18833482164879478</v>
+      </c>
+      <c r="E23">
+        <v>0.11946010984523288</v>
+      </c>
+      <c r="F23">
+        <v>0.6136267248603865</v>
+      </c>
+      <c r="G23">
+        <v>5</v>
+      </c>
+      <c r="H23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="B24">
+        <v>0.0059815372574241899</v>
+      </c>
+      <c r="C24">
+        <v>0.15645934017004112</v>
+      </c>
+      <c r="D24">
+        <v>0.12109888813212713</v>
+      </c>
+      <c r="E24">
+        <v>0.022785940873501401</v>
+      </c>
+      <c r="F24">
+        <v>0.69367429356690613</v>
+      </c>
+      <c r="G24">
+        <v>5</v>
+      </c>
+      <c r="H24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="B25">
+        <v>0.00081171939959251514</v>
+      </c>
+      <c r="C25">
+        <v>0.0022886132174702541</v>
+      </c>
+      <c r="D25">
+        <v>0.78343225494470603</v>
+      </c>
+      <c r="E25">
+        <v>0.1335384788070727</v>
+      </c>
+      <c r="F25">
+        <v>0.079928933631158439</v>
+      </c>
+      <c r="G25">
+        <v>3</v>
+      </c>
+      <c r="H25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="9" t="s">
+        <v>329</v>
+      </c>
+      <c r="B26">
+        <v>0.00072511673032345486</v>
+      </c>
+      <c r="C26">
+        <v>0.014393896752518946</v>
+      </c>
+      <c r="D26">
+        <v>0.60989394068693559</v>
+      </c>
+      <c r="E26">
+        <v>0.078878759311841268</v>
+      </c>
+      <c r="F26">
+        <v>0.29610828651838067</v>
+      </c>
+      <c r="G26">
+        <v>3</v>
+      </c>
+      <c r="H26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="9" t="s">
+        <v>330</v>
+      </c>
+      <c r="B27">
+        <v>0.0078788451368502037</v>
+      </c>
+      <c r="C27">
+        <v>0.088035496048505898</v>
+      </c>
+      <c r="D27">
+        <v>0.3102389127297257</v>
+      </c>
+      <c r="E27">
+        <v>0.094094275292367954</v>
+      </c>
+      <c r="F27">
+        <v>0.49975247079255031</v>
+      </c>
+      <c r="G27">
+        <v>5</v>
+      </c>
+      <c r="H27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="B28">
+        <v>0.0025438396809244501</v>
+      </c>
+      <c r="C28">
+        <v>0.0041515278381562826</v>
+      </c>
+      <c r="D28">
+        <v>0.080361931965730965</v>
+      </c>
+      <c r="E28">
+        <v>0.50537481386927585</v>
+      </c>
+      <c r="F28">
+        <v>0.40756788664591237</v>
+      </c>
+      <c r="G28">
+        <v>4</v>
+      </c>
+      <c r="H28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="B29">
+        <v>0.0038330606163697279</v>
+      </c>
+      <c r="C29">
+        <v>0.18423529728278265</v>
+      </c>
+      <c r="D29">
+        <v>0.1901288707287459</v>
+      </c>
+      <c r="E29">
+        <v>0.0062509565570308019</v>
+      </c>
+      <c r="F29">
+        <v>0.61555181481507093</v>
+      </c>
+      <c r="G29">
+        <v>5</v>
+      </c>
+      <c r="H29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="B30">
+        <v>0.0026572820277830328</v>
+      </c>
+      <c r="C30">
+        <v>0.00035585477519976556</v>
+      </c>
+      <c r="D30">
+        <v>0.8547433938188963</v>
+      </c>
+      <c r="E30">
+        <v>0.1195686088966188</v>
+      </c>
+      <c r="F30">
+        <v>0.022674860481502135</v>
+      </c>
+      <c r="G30">
+        <v>3</v>
+      </c>
+      <c r="H30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="B31">
+        <v>0.0025650365087810669</v>
+      </c>
+      <c r="C31">
+        <v>6.892908885087964e-06</v>
+      </c>
+      <c r="D31">
+        <v>0.90794449781661435</v>
+      </c>
+      <c r="E31">
+        <v>0.00088479284636034327</v>
+      </c>
+      <c r="F31">
+        <v>0.088598779919359022</v>
+      </c>
+      <c r="G31">
+        <v>3</v>
+      </c>
+      <c r="H31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="B32">
+        <v>0.00089508781670577509</v>
+      </c>
+      <c r="C32">
+        <v>0.01930314963688037</v>
+      </c>
+      <c r="D32">
+        <v>0.34099656739084855</v>
+      </c>
+      <c r="E32">
+        <v>0.55768606970354573</v>
+      </c>
+      <c r="F32">
+        <v>0.081119125452019575</v>
+      </c>
+      <c r="G32">
+        <v>4</v>
+      </c>
+      <c r="H32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="B33">
+        <v>0.014381199336352365</v>
+      </c>
+      <c r="C33">
+        <v>0.49462897925840515</v>
+      </c>
+      <c r="D33">
+        <v>0.039434588168559423</v>
+      </c>
+      <c r="E33">
+        <v>0.44482526782263787</v>
+      </c>
+      <c r="F33">
+        <v>0.0067299654140452548</v>
+      </c>
+      <c r="G33">
+        <v>2</v>
+      </c>
+      <c r="H33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="B34">
+        <v>0.00067814376725241349</v>
+      </c>
+      <c r="C34">
+        <v>0.031366606173186228</v>
+      </c>
+      <c r="D34">
+        <v>0.0013482981634160055</v>
+      </c>
+      <c r="E34">
+        <v>0.91582417542724859</v>
+      </c>
+      <c r="F34">
+        <v>0.050782776468896701</v>
+      </c>
+      <c r="G34">
+        <v>4</v>
+      </c>
+      <c r="H34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="B35">
+        <v>0.0013507616173635897</v>
+      </c>
+      <c r="C35">
+        <v>0.14310143893283447</v>
+      </c>
+      <c r="D35">
+        <v>0.017627144174802295</v>
+      </c>
+      <c r="E35">
+        <v>0.70052424233139177</v>
+      </c>
+      <c r="F35">
+        <v>0.13739641294360791</v>
+      </c>
+      <c r="G35">
+        <v>4</v>
+      </c>
+      <c r="H35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="B36">
+        <v>0.00048764345533684706</v>
+      </c>
+      <c r="C36">
+        <v>0.12662235118699894</v>
+      </c>
+      <c r="D36">
+        <v>0.002098758671708494</v>
+      </c>
+      <c r="E36">
+        <v>0.64498524021045223</v>
+      </c>
+      <c r="F36">
+        <v>0.22580600647550347</v>
+      </c>
+      <c r="G36">
+        <v>4</v>
+      </c>
+      <c r="H36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="B37">
+        <v>0.001579533302797027</v>
+      </c>
+      <c r="C37">
+        <v>0.028942001264180773</v>
+      </c>
+      <c r="D37">
+        <v>0.033899668376737656</v>
+      </c>
+      <c r="E37">
+        <v>0.89883048724734427</v>
+      </c>
+      <c r="F37">
+        <v>0.036748309808940345</v>
+      </c>
+      <c r="G37">
+        <v>4</v>
+      </c>
+      <c r="H37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="B38">
+        <v>0.0011465528273124413</v>
+      </c>
+      <c r="C38">
+        <v>0.17069066377064457</v>
+      </c>
+      <c r="D38">
+        <v>0.18503251572305748</v>
+      </c>
+      <c r="E38">
+        <v>0.142316603986128</v>
+      </c>
+      <c r="F38">
+        <v>0.50081366369285762</v>
+      </c>
+      <c r="G38">
+        <v>5</v>
+      </c>
+      <c r="H38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="B39">
+        <v>0.00060571004385971162</v>
+      </c>
+      <c r="C39">
+        <v>0.1379923188719194</v>
+      </c>
+      <c r="D39">
+        <v>0.0014102698680233477</v>
+      </c>
+      <c r="E39">
+        <v>0.56177203626433159</v>
+      </c>
+      <c r="F39">
+        <v>0.29821966495186597</v>
+      </c>
+      <c r="G39">
+        <v>4</v>
+      </c>
+      <c r="H39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="B40">
+        <v>0.00038269308294252159</v>
+      </c>
+      <c r="C40">
+        <v>0.088788749691459251</v>
+      </c>
+      <c r="D40">
+        <v>0.00083911308557739462</v>
+      </c>
+      <c r="E40">
+        <v>0.74645176389901091</v>
+      </c>
+      <c r="F40">
+        <v>0.16353768024101004</v>
+      </c>
+      <c r="G40">
+        <v>4</v>
+      </c>
+      <c r="H40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="B41">
+        <v>0.00053555388688828918</v>
+      </c>
+      <c r="C41">
+        <v>0.063508937046838201</v>
+      </c>
+      <c r="D41">
+        <v>0.0029706789405641032</v>
+      </c>
+      <c r="E41">
+        <v>0.61589704482819052</v>
+      </c>
+      <c r="F41">
+        <v>0.31708778529751885</v>
+      </c>
+      <c r="G41">
+        <v>4</v>
+      </c>
+      <c r="H41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="B42">
+        <v>0.0033791493417956045</v>
+      </c>
+      <c r="C42">
+        <v>0.41218685334120081</v>
+      </c>
+      <c r="D42">
+        <v>0.0013315602124957604</v>
+      </c>
+      <c r="E42">
+        <v>0.53866463445375301</v>
+      </c>
+      <c r="F42">
+        <v>0.044437802650754768</v>
+      </c>
+      <c r="G42">
+        <v>4</v>
+      </c>
+      <c r="H42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="B43">
+        <v>0.00084741841300214904</v>
+      </c>
+      <c r="C43">
+        <v>0.014426091863724851</v>
+      </c>
+      <c r="D43">
+        <v>0.0069493778510197066</v>
+      </c>
+      <c r="E43">
+        <v>0.93998367631547253</v>
+      </c>
+      <c r="F43">
+        <v>0.037793435556780754</v>
+      </c>
+      <c r="G43">
+        <v>4</v>
+      </c>
+      <c r="H43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="B44">
+        <v>0.00066743242432478215</v>
+      </c>
+      <c r="C44">
+        <v>0.025753992491236742</v>
+      </c>
+      <c r="D44">
+        <v>0.010409372431277713</v>
+      </c>
+      <c r="E44">
+        <v>0.55630325988527196</v>
+      </c>
+      <c r="F44">
+        <v>0.40686594276788879</v>
+      </c>
+      <c r="G44">
+        <v>4</v>
+      </c>
+      <c r="H44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="B45">
+        <v>0.00070740275658616708</v>
+      </c>
+      <c r="C45">
+        <v>0.04044757850662279</v>
+      </c>
+      <c r="D45">
+        <v>0.0045762464452004771</v>
+      </c>
+      <c r="E45">
+        <v>0.4454945523896342</v>
+      </c>
+      <c r="F45">
+        <v>0.50877421990195626</v>
+      </c>
+      <c r="G45">
+        <v>5</v>
+      </c>
+      <c r="H45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="B46">
+        <v>0.0019760153617896254</v>
+      </c>
+      <c r="C46">
+        <v>0.0094223460415908279</v>
+      </c>
+      <c r="D46">
+        <v>0.11333091693616891</v>
+      </c>
+      <c r="E46">
+        <v>0.70283359520033961</v>
+      </c>
+      <c r="F46">
+        <v>0.17243712646011108</v>
+      </c>
+      <c r="G46">
+        <v>4</v>
+      </c>
+      <c r="H46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="9" t="s">
+        <v>350</v>
+      </c>
+      <c r="B47">
+        <v>0.0018919121090811488</v>
+      </c>
+      <c r="C47">
+        <v>0.032772767115990462</v>
+      </c>
+      <c r="D47">
+        <v>0.010549980027779821</v>
+      </c>
+      <c r="E47">
+        <v>0.52770119112828096</v>
+      </c>
+      <c r="F47">
+        <v>0.42708414961886754</v>
+      </c>
+      <c r="G47">
+        <v>4</v>
+      </c>
+      <c r="H47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="B48">
+        <v>0.0017844177149968199</v>
+      </c>
+      <c r="C48">
+        <v>0.0054764242408867061</v>
+      </c>
+      <c r="D48">
+        <v>0.049568166659203397</v>
+      </c>
+      <c r="E48">
+        <v>0.74148473800165904</v>
+      </c>
+      <c r="F48">
+        <v>0.20168625338325399</v>
+      </c>
+      <c r="G48">
+        <v>4</v>
+      </c>
+      <c r="H48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="B49">
+        <v>0.0036036857884763078</v>
+      </c>
+      <c r="C49">
+        <v>0.025583700759065735</v>
+      </c>
+      <c r="D49">
+        <v>0.36925053636204963</v>
+      </c>
+      <c r="E49">
+        <v>0.22222233542030098</v>
+      </c>
+      <c r="F49">
+        <v>0.3793397416701072</v>
+      </c>
+      <c r="G49">
+        <v>5</v>
+      </c>
+      <c r="H49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="B50">
+        <v>0.0021495522776968563</v>
+      </c>
+      <c r="C50">
+        <v>0.023901149871219274</v>
+      </c>
+      <c r="D50">
+        <v>0.014819229359918761</v>
+      </c>
+      <c r="E50">
+        <v>0.28597340212628936</v>
+      </c>
+      <c r="F50">
+        <v>0.6731566663648757</v>
+      </c>
+      <c r="G50">
+        <v>5</v>
+      </c>
+      <c r="H50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="B51">
+        <v>0.11914810681283243</v>
+      </c>
+      <c r="C51">
+        <v>0.55031840905563734</v>
+      </c>
+      <c r="D51">
+        <v>0.019213615467324106</v>
+      </c>
+      <c r="E51">
+        <v>0.057041450132306173</v>
+      </c>
+      <c r="F51">
+        <v>0.25427841853190009</v>
+      </c>
+      <c r="G51">
+        <v>2</v>
+      </c>
+      <c r="H51">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="B52">
+        <v>0.00563777379583241</v>
+      </c>
+      <c r="C52">
+        <v>0.013497449849740368</v>
+      </c>
+      <c r="D52">
+        <v>0.068685507697183998</v>
+      </c>
+      <c r="E52">
+        <v>0.2707964687786924</v>
+      </c>
+      <c r="F52">
+        <v>0.64138279987855085</v>
+      </c>
+      <c r="G52">
+        <v>5</v>
+      </c>
+      <c r="H52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="9" t="s">
+        <v>356</v>
+      </c>
+      <c r="B53">
+        <v>0.011149210947352606</v>
+      </c>
+      <c r="C53">
+        <v>0.0039014455994620598</v>
+      </c>
+      <c r="D53">
+        <v>0.14234753809081846</v>
+      </c>
+      <c r="E53">
+        <v>0.41127205114799498</v>
+      </c>
+      <c r="F53">
+        <v>0.43132975421437192</v>
+      </c>
+      <c r="G53">
+        <v>5</v>
+      </c>
+      <c r="H53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="B54">
+        <v>0.046217322352886669</v>
+      </c>
+      <c r="C54">
+        <v>0.022294754725295397</v>
+      </c>
+      <c r="D54">
+        <v>0.21274493794012586</v>
+      </c>
+      <c r="E54">
+        <v>0.068394607324030035</v>
+      </c>
+      <c r="F54">
+        <v>0.65034837765766207</v>
+      </c>
+      <c r="G54">
+        <v>5</v>
+      </c>
+      <c r="H54">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="B55">
+        <v>0.031728785903506661</v>
+      </c>
+      <c r="C55">
+        <v>0.034480843113497556</v>
+      </c>
+      <c r="D55">
+        <v>0.035880634100799759</v>
+      </c>
+      <c r="E55">
+        <v>0.087603134311816794</v>
+      </c>
+      <c r="F55">
+        <v>0.81030660257037923</v>
+      </c>
+      <c r="G55">
+        <v>5</v>
+      </c>
+      <c r="H55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="B56">
+        <v>0.0037941539855618875</v>
+      </c>
+      <c r="C56">
+        <v>0.43436028784596004</v>
+      </c>
+      <c r="D56">
+        <v>0.038885743611990008</v>
+      </c>
+      <c r="E56">
+        <v>0.060902319965958462</v>
+      </c>
+      <c r="F56">
+        <v>0.46205749459052964</v>
+      </c>
+      <c r="G56">
+        <v>5</v>
+      </c>
+      <c r="H56">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="B57">
+        <v>0.0018715338910856472</v>
+      </c>
+      <c r="C57">
+        <v>0.20257646531403917</v>
+      </c>
+      <c r="D57">
+        <v>0.011884784847313848</v>
+      </c>
+      <c r="E57">
+        <v>0.40388055048550148</v>
+      </c>
+      <c r="F57">
+        <v>0.37978666546205997</v>
+      </c>
+      <c r="G57">
+        <v>4</v>
+      </c>
+      <c r="H57">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="B58">
+        <v>0.0015016718145809016</v>
+      </c>
+      <c r="C58">
+        <v>0.24245030872529807</v>
+      </c>
+      <c r="D58">
+        <v>0.0086128315394827411</v>
+      </c>
+      <c r="E58">
+        <v>0.20441593647772754</v>
+      </c>
+      <c r="F58">
+        <v>0.54301925144291063</v>
+      </c>
+      <c r="G58">
+        <v>5</v>
+      </c>
+      <c r="H58">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="B59">
+        <v>0.012767482452425712</v>
+      </c>
+      <c r="C59">
+        <v>0.37574587393346648</v>
+      </c>
+      <c r="D59">
+        <v>0.041341774977142982</v>
+      </c>
+      <c r="E59">
+        <v>0.33229579482215843</v>
+      </c>
+      <c r="F59">
+        <v>0.23784907381480647</v>
+      </c>
+      <c r="G59">
+        <v>2</v>
+      </c>
+      <c r="H59">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="B60">
+        <v>0.0013891540247203433</v>
+      </c>
+      <c r="C60">
+        <v>0.18252908586990074</v>
+      </c>
+      <c r="D60">
+        <v>0.029579728345494102</v>
+      </c>
+      <c r="E60">
+        <v>0.16677176732988874</v>
+      </c>
+      <c r="F60">
+        <v>0.61973026442999612</v>
+      </c>
+      <c r="G60">
+        <v>5</v>
+      </c>
+      <c r="H60">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="B61">
+        <v>0.002437798319978781</v>
+      </c>
+      <c r="C61">
+        <v>0.18403516456546962</v>
+      </c>
+      <c r="D61">
+        <v>0.023506207978696306</v>
+      </c>
+      <c r="E61">
+        <v>0.019400650134264227</v>
+      </c>
+      <c r="F61">
+        <v>0.77062017900159108</v>
+      </c>
+      <c r="G61">
+        <v>5</v>
+      </c>
+      <c r="H61">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="9" t="s">
+        <v>365</v>
+      </c>
+      <c r="B62">
+        <v>0.00069171683499839474</v>
+      </c>
+      <c r="C62">
+        <v>0.088624231770351364</v>
+      </c>
+      <c r="D62">
+        <v>0.005307557517638355</v>
+      </c>
+      <c r="E62">
+        <v>0.51598690632576749</v>
+      </c>
+      <c r="F62">
+        <v>0.38938958755124431</v>
+      </c>
+      <c r="G62">
+        <v>4</v>
+      </c>
+      <c r="H62">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="B63">
+        <v>0.00094539304964548455</v>
+      </c>
+      <c r="C63">
+        <v>0.087870530879577094</v>
+      </c>
+      <c r="D63">
+        <v>0.029534749879965676</v>
+      </c>
+      <c r="E63">
+        <v>0.28724253196718147</v>
+      </c>
+      <c r="F63">
+        <v>0.59440679422363019</v>
+      </c>
+      <c r="G63">
+        <v>5</v>
+      </c>
+      <c r="H63">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="B64">
+        <v>0.00085805390249615442</v>
+      </c>
+      <c r="C64">
+        <v>0.061275210048573066</v>
+      </c>
+      <c r="D64">
+        <v>0.046401683557827818</v>
+      </c>
+      <c r="E64">
+        <v>0.43127432294043544</v>
+      </c>
+      <c r="F64">
+        <v>0.46019072955066748</v>
+      </c>
+      <c r="G64">
+        <v>5</v>
+      </c>
+      <c r="H64">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="B65">
+        <v>0.0017531563376363627</v>
+      </c>
+      <c r="C65">
+        <v>0.090439664523993393</v>
+      </c>
+      <c r="D65">
+        <v>0.048866267049632754</v>
+      </c>
+      <c r="E65">
+        <v>0.21074411424027953</v>
+      </c>
+      <c r="F65">
+        <v>0.64819679784845796</v>
+      </c>
+      <c r="G65">
+        <v>5</v>
+      </c>
+      <c r="H65">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="9" t="s">
+        <v>369</v>
+      </c>
+      <c r="B66">
+        <v>0.0034271840819202828</v>
+      </c>
+      <c r="C66">
+        <v>0.074458881975946564</v>
+      </c>
+      <c r="D66">
+        <v>0.22696425317908775</v>
+      </c>
+      <c r="E66">
+        <v>0.08260602616801152</v>
+      </c>
+      <c r="F66">
+        <v>0.6125436545950339</v>
+      </c>
+      <c r="G66">
+        <v>5</v>
+      </c>
+      <c r="H66">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="B67">
+        <v>0.0018729147314919031</v>
+      </c>
+      <c r="C67">
+        <v>0.023706366485583847</v>
+      </c>
+      <c r="D67">
+        <v>0.30225698546900592</v>
+      </c>
+      <c r="E67">
+        <v>0.16892050317806076</v>
+      </c>
+      <c r="F67">
+        <v>0.5032432301358577</v>
+      </c>
+      <c r="G67">
+        <v>5</v>
+      </c>
+      <c r="H67">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="9" t="s">
+        <v>371</v>
+      </c>
+      <c r="B68">
+        <v>0.0033366594679534439</v>
+      </c>
+      <c r="C68">
+        <v>0.18352720932882852</v>
+      </c>
+      <c r="D68">
+        <v>0.097573422522681252</v>
+      </c>
+      <c r="E68">
+        <v>0.32917603967530135</v>
+      </c>
+      <c r="F68">
+        <v>0.38638666900523549</v>
+      </c>
+      <c r="G68">
+        <v>5</v>
+      </c>
+      <c r="H68">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="B69">
+        <v>0.0026264423539516936</v>
+      </c>
+      <c r="C69">
+        <v>0.078878119901338403</v>
+      </c>
+      <c r="D69">
+        <v>0.066267595424013157</v>
+      </c>
+      <c r="E69">
+        <v>0.074073242612028717</v>
+      </c>
+      <c r="F69">
+        <v>0.77815459970866796</v>
+      </c>
+      <c r="G69">
+        <v>5</v>
+      </c>
+      <c r="H69">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="B70">
+        <v>0.0014676688174699534</v>
+      </c>
+      <c r="C70">
+        <v>0.018984816427078801</v>
+      </c>
+      <c r="D70">
+        <v>0.23406652117332094</v>
+      </c>
+      <c r="E70">
+        <v>0.41087808616900207</v>
+      </c>
+      <c r="F70">
+        <v>0.3346029074131282</v>
+      </c>
+      <c r="G70">
+        <v>4</v>
+      </c>
+      <c r="H70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="B71">
+        <v>0.00089365662475858259</v>
+      </c>
+      <c r="C71">
+        <v>0.016333732788026668</v>
+      </c>
+      <c r="D71">
+        <v>0.021173557671435351</v>
+      </c>
+      <c r="E71">
+        <v>0.42546526822706005</v>
+      </c>
+      <c r="F71">
+        <v>0.53613378468871931</v>
+      </c>
+      <c r="G71">
+        <v>5</v>
+      </c>
+      <c r="H71">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="B72">
+        <v>0.0066783931181545837</v>
+      </c>
+      <c r="C72">
+        <v>0.048959129001013721</v>
+      </c>
+      <c r="D72">
+        <v>0.30229301508664119</v>
+      </c>
+      <c r="E72">
+        <v>0.11818069082509923</v>
+      </c>
+      <c r="F72">
+        <v>0.52388877196909134</v>
+      </c>
+      <c r="G72">
+        <v>5</v>
+      </c>
+      <c r="H72">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="B73">
+        <v>0.011990453496445532</v>
+      </c>
+      <c r="C73">
+        <v>0.20903305865367197</v>
+      </c>
+      <c r="D73">
+        <v>0.018043673310694629</v>
+      </c>
+      <c r="E73">
+        <v>0.00058547658278849317</v>
+      </c>
+      <c r="F73">
+        <v>0.76034733795639942</v>
+      </c>
+      <c r="G73">
+        <v>5</v>
+      </c>
+      <c r="H73">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="B74">
+        <v>0.02754536168827491</v>
+      </c>
+      <c r="C74">
+        <v>0.02787990210384917</v>
+      </c>
+      <c r="D74">
+        <v>0.16317681640159865</v>
+      </c>
+      <c r="E74">
+        <v>0.20733967822939672</v>
+      </c>
+      <c r="F74">
+        <v>0.57405824157688057</v>
+      </c>
+      <c r="G74">
+        <v>5</v>
+      </c>
+      <c r="H74">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="B75">
+        <v>0.33681217243686945</v>
+      </c>
+      <c r="C75">
+        <v>0.1205753023663837</v>
+      </c>
+      <c r="D75">
+        <v>0.076877349721742247</v>
+      </c>
+      <c r="E75">
+        <v>0.0033454781111387881</v>
+      </c>
+      <c r="F75">
+        <v>0.46238969736386593</v>
+      </c>
+      <c r="G75">
+        <v>5</v>
+      </c>
+      <c r="H75">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
 </file>